--- a/notebook/dep_vk.xlsx
+++ b/notebook/dep_vk.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -490,22 +490,22 @@
         <v>https://vk.com/wall-35524999_24264</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>1003</v>
+        <v>1704</v>
       </c>
       <c r="G2" t="str">
-        <v>0.040</v>
+        <v>0.060</v>
       </c>
       <c r="H2" t="str">
-        <v>2.883</v>
+        <v>4.899</v>
       </c>
       <c r="I2" t="str" xml:space="preserve">
         <v xml:space="preserve">Недавно мы рассказывали, для каких целей может пригодиться банковский сейф. А сегодня поговорим о том, как его арендовать.
@@ -542,22 +542,22 @@
         <v>https://vk.com/wall-35524999_24262</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>878</v>
+        <v>956</v>
       </c>
       <c r="G3" t="str">
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
       <c r="H3" t="str">
-        <v>2.524</v>
+        <v>2.748</v>
       </c>
       <c r="I3" t="str" xml:space="preserve">
         <v xml:space="preserve">Любите ли вы футбол так, как любим его мы? 
@@ -601,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1280</v>
+        <v>1585</v>
       </c>
       <c r="G4" t="str">
         <v>0.037</v>
       </c>
       <c r="H4" t="str">
-        <v>3.680</v>
+        <v>4.557</v>
       </c>
       <c r="I4" t="str" xml:space="preserve">
         <v xml:space="preserve">Для нас давно стало привычным, что платежи и переводы поступают моментально.
@@ -644,7 +644,7 @@
         <v>https://vk.com/wall-35524999_24256</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1310</v>
+        <v>1589</v>
       </c>
       <c r="G5" t="str">
-        <v>0.029</v>
+        <v>0.032</v>
       </c>
       <c r="H5" t="str">
-        <v>3.766</v>
+        <v>4.569</v>
       </c>
       <c r="I5" t="str" xml:space="preserve">
         <v xml:space="preserve">Хотите получать кешбэк до 3 % и пользоваться услугами для путешествий? 
@@ -708,13 +708,13 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>1881</v>
+        <v>2046</v>
       </c>
       <c r="G6" t="str">
         <v>0.049</v>
       </c>
       <c r="H6" t="str">
-        <v>5.407</v>
+        <v>5.882</v>
       </c>
       <c r="I6" t="str" xml:space="preserve">
         <v xml:space="preserve">«А картой можно?», — этот вопрос клиенты задают в магазинах, кафе, салонах красоты и даже на рынке. 
@@ -744,7 +744,7 @@
         <v>image</v>
       </c>
       <c r="M6" t="str">
-        <v>https://sun9-79.userapi.com/s/v1/ig2/w9LsOqQOyZLlo5bQesM0_xWJjwTT222_1RqumLOXcf9kXJMzcUA9BO-GEdv3nx4_IleL7OOXOQSeGVtPNMLgqQPs.jpg?size=510x510&amp;quality=95&amp;type=album</v>
+        <v>https://sun1-16.userapi.com/s/v1/ig2/w9LsOqQOyZLlo5bQesM0_xWJjwTT222_1RqumLOXcf9kXJMzcUA9BO-GEdv3nx4_IleL7OOXOQSeGVtPNMLgqQPs.jpg?size=510x510&amp;quality=95&amp;type=album</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
@@ -755,22 +755,22 @@
         <v>https://vk.com/wall-35524999_24240</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1658</v>
+        <v>1703</v>
       </c>
       <c r="G7" t="str">
-        <v>0.037</v>
+        <v>0.043</v>
       </c>
       <c r="H7" t="str">
-        <v>4.766</v>
+        <v>4.896</v>
       </c>
       <c r="I7" t="str" xml:space="preserve">
         <v xml:space="preserve">Многие знают, что кешбэк — это удобный способ экономить средства. Сегодня рассказываем, как он устроен и зачем нужен. 
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>992</v>
+        <v>1027</v>
       </c>
       <c r="G8" t="str">
         <v>0.023</v>
       </c>
       <c r="H8" t="str">
-        <v>2.852</v>
+        <v>2.953</v>
       </c>
       <c r="I8" t="str" xml:space="preserve">
         <v xml:space="preserve">Как запустить продажи на маркетплейсе? 
@@ -857,7 +857,7 @@
         <v>image</v>
       </c>
       <c r="Q8" t="str">
-        <v>https://sun1-86.userapi.com/s/v1/ig2/UtT1iy6Z6lcNjoxQZlNJHwuA-a_qId1AGxEdiTOHtxCQuCU9csebvQLZo3L9fwvn61zOj-27KbgFLwRdN-7BKlIy.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
+        <v>https://sun9-86.userapi.com/s/v1/ig2/UtT1iy6Z6lcNjoxQZlNJHwuA-a_qId1AGxEdiTOHtxCQuCU9csebvQLZo3L9fwvn61zOj-27KbgFLwRdN-7BKlIy.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
       </c>
       <c r="R8" t="str">
         <v>image</v>
@@ -869,7 +869,7 @@
         <v>image</v>
       </c>
       <c r="U8" t="str">
-        <v>https://sun1-22.userapi.com/s/v1/ig2/rm-Z6TW1Q2XGW87xggdqaPrcKw0TmqzNXDhThmKZ34I1XzQRuO7dsfyDQR3TC7Q6TyCAKEt85porSgAhjAlPKU-R.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
+        <v>https://sun9-81.userapi.com/s/v1/ig2/rm-Z6TW1Q2XGW87xggdqaPrcKw0TmqzNXDhThmKZ34I1XzQRuO7dsfyDQR3TC7Q6TyCAKEt85porSgAhjAlPKU-R.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
@@ -889,13 +889,13 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1317</v>
+        <v>1348</v>
       </c>
       <c r="G9" t="str">
         <v>0.069</v>
       </c>
       <c r="H9" t="str">
-        <v>3.786</v>
+        <v>3.876</v>
       </c>
       <c r="I9" t="str" xml:space="preserve">
         <v xml:space="preserve">Куратор проекта, орнитолог Эльза Габбасова уже дважды побывала на крыше офиса Банка Уралсиб в Уфе с момента появления птенцов.
@@ -916,7 +916,7 @@
         <v>image</v>
       </c>
       <c r="M9" t="str">
-        <v>https://sun9-26.userapi.com/s/v1/ig2/7nIrVSSXm6YBj6S_dOoCKFUZ8GVGrGkjAiW0FlchObaXXbaBKP3GU8nYaeqI4EQShroiv_ldzK7V8bMW582o1TkZ.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
+        <v>https://sun1-26.userapi.com/s/v1/ig2/7nIrVSSXm6YBj6S_dOoCKFUZ8GVGrGkjAiW0FlchObaXXbaBKP3GU8nYaeqI4EQShroiv_ldzK7V8bMW582o1TkZ.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
@@ -933,16 +933,16 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>55352</v>
+        <v>55379</v>
       </c>
       <c r="G10" t="str">
-        <v>0.052</v>
+        <v>0.058</v>
       </c>
       <c r="H10" t="str">
-        <v>159.126</v>
+        <v>159.217</v>
       </c>
       <c r="I10" t="str" xml:space="preserve">
         <v xml:space="preserve">Проценты по вкладам и накопительным счетам продолжают снижаться, а мы предлагаем высокий.
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="G11" t="str">
         <v>0.023</v>
       </c>
       <c r="H11" t="str">
-        <v>2.332</v>
+        <v>2.406</v>
       </c>
       <c r="I11" t="str" xml:space="preserve">
         <v xml:space="preserve">Приведите друга и получите сертификат на 3 500 ₽! 
@@ -1015,7 +1015,7 @@
         <v>image</v>
       </c>
       <c r="M11" t="str">
-        <v>https://sun9-47.userapi.com/s/v1/ig2/EUsPUaCIlvEZXyJMNPQF0L4qeGTqysFrEhR5RffMV5UHgfKvcDtPGsZuDE4rHS-WXcwiz-2tMPU5swZ-13wC9oe4.jpg?size=510x510&amp;quality=95&amp;type=album</v>
+        <v>https://sun1-47.userapi.com/s/v1/ig2/EUsPUaCIlvEZXyJMNPQF0L4qeGTqysFrEhR5RffMV5UHgfKvcDtPGsZuDE4rHS-WXcwiz-2tMPU5swZ-13wC9oe4.jpg?size=510x510&amp;quality=95&amp;type=album</v>
       </c>
     </row>
     <row r="12" xml:space="preserve">
@@ -1026,22 +1026,22 @@
         <v>https://vk.com/wall-35524999_24225</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12">
-        <v>3383</v>
+        <v>3412</v>
       </c>
       <c r="G12" t="str">
-        <v>0.066</v>
+        <v>0.072</v>
       </c>
       <c r="H12" t="str">
-        <v>9.726</v>
+        <v>9.810</v>
       </c>
       <c r="I12" t="str" xml:space="preserve">
         <v xml:space="preserve">Оплачивайте покупки через СБП и Уралсиб быстро и безопасно — в магазинах и на сайтах. Без карты, нужен только смартфон с установленным Уралсиб Онлайн! 
@@ -1082,16 +1082,16 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>1906</v>
+        <v>1931</v>
       </c>
       <c r="G13" t="str">
-        <v>0.058</v>
+        <v>0.060</v>
       </c>
       <c r="H13" t="str">
-        <v>5.479</v>
+        <v>5.552</v>
       </c>
       <c r="I13" t="str" xml:space="preserve">
         <v xml:space="preserve">Грейс-период по кредитке — временной промежуток, когда вы можете совершать покупки в кредит и не платить проценты. 
@@ -1121,7 +1121,7 @@
         <v>image</v>
       </c>
       <c r="M13" t="str">
-        <v>https://sun9-21.userapi.com/s/v1/ig2/TAXHMg4fi3DkFwnjOA3utYk60Jo5gDwcNE0-DPj94q-zngiLxkpqm9PXrjQNNbPZPK22C9nd3xHp2Ty7qdymzH-z.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
+        <v>https://sun1-21.userapi.com/s/v1/ig2/TAXHMg4fi3DkFwnjOA3utYk60Jo5gDwcNE0-DPj94q-zngiLxkpqm9PXrjQNNbPZPK22C9nd3xHp2Ty7qdymzH-z.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
       </c>
       <c r="N13" t="str">
         <v>image</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1433</v>
+        <v>1452</v>
       </c>
       <c r="G14" t="str">
         <v>0.026</v>
       </c>
       <c r="H14" t="str">
-        <v>4.120</v>
+        <v>4.175</v>
       </c>
       <c r="I14" t="str" xml:space="preserve">
         <v xml:space="preserve">Когда только открываешь собственный бизнес, возникает вопрос: какие инструменты могут помочь? 
@@ -1204,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>102720</v>
+        <v>102739</v>
       </c>
       <c r="G15" t="str">
         <v>0.112</v>
       </c>
       <c r="H15" t="str">
-        <v>295.300</v>
+        <v>295.380</v>
       </c>
       <c r="I15" t="str" xml:space="preserve">
         <v xml:space="preserve">Преступники всё чаще пишут детям в социальных сетях, чтобы получить номер карты или личные данные. 
@@ -1239,7 +1239,7 @@
         <v>image</v>
       </c>
       <c r="M15" t="str">
-        <v>https://sun1-88.userapi.com/s/v1/ig2/vc5mcsNu94x96u7eMwCbcErU28aOBKvfpXvoFyLGpf484CrLY1UzuHEXoQXD_yd8xi4DqmFGMfeicCEKbIT6lta-.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
+        <v>https://sun9-33.userapi.com/s/v1/ig2/vc5mcsNu94x96u7eMwCbcErU28aOBKvfpXvoFyLGpf484CrLY1UzuHEXoQXD_yd8xi4DqmFGMfeicCEKbIT6lta-.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
       </c>
     </row>
     <row r="16" xml:space="preserve">
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>135942</v>
+        <v>135964</v>
       </c>
       <c r="G16" t="str">
         <v>0.083</v>
       </c>
       <c r="H16" t="str">
-        <v>390.806</v>
+        <v>390.903</v>
       </c>
       <c r="I16" t="str" xml:space="preserve">
         <v xml:space="preserve">Планируете зарегистрировать ИП? 
@@ -1295,7 +1295,7 @@
         <v>image</v>
       </c>
       <c r="M16" t="str">
-        <v>https://sun9-40.userapi.com/s/v1/ig2/rNb53eZOOjGq6AhRZSaRAazo4Itv1hop649SAi5S7ci-QjwHlUgbIjDkSTFA2OBACoIsfqBD-AULTtZ45607nx2F.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
+        <v>https://sun1-85.userapi.com/s/v1/ig2/rNb53eZOOjGq6AhRZSaRAazo4Itv1hop649SAi5S7ci-QjwHlUgbIjDkSTFA2OBACoIsfqBD-AULTtZ45607nx2F.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
@@ -1315,13 +1315,13 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1826</v>
+        <v>1840</v>
       </c>
       <c r="G17" t="str">
         <v>0.049</v>
       </c>
       <c r="H17" t="str">
-        <v>5.249</v>
+        <v>5.290</v>
       </c>
       <c r="I17" t="str" xml:space="preserve">
         <v xml:space="preserve">26 мая в 16:00 мск на связь выйдет Университет Бизнеса Банка Уралсиб с вебинаром «Пошаговый запуск продаж на маркетплейсе за 1,5 часа».
@@ -1348,7 +1348,7 @@
         <v>image</v>
       </c>
       <c r="M17" t="str">
-        <v>https://sun1-87.userapi.com/s/v1/ig2/X-nWW93D4MYz3e0F010wU81S7pOeh4m-lQFY7Y7mRnBDYW37Ro5r5wlreREItL-9rxJvkd2SfcCdJ6zSxfDoSo-o.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
+        <v>https://sun9-40.userapi.com/s/v1/ig2/X-nWW93D4MYz3e0F010wU81S7pOeh4m-lQFY7Y7mRnBDYW37Ro5r5wlreREItL-9rxJvkd2SfcCdJ6zSxfDoSo-o.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
       </c>
     </row>
     <row r="18" xml:space="preserve">
@@ -1368,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>55520</v>
+        <v>55531</v>
       </c>
       <c r="G18" t="str">
         <v>0.063</v>
       </c>
       <c r="H18" t="str">
-        <v>159.609</v>
+        <v>159.654</v>
       </c>
       <c r="I18" t="str" xml:space="preserve">
         <v xml:space="preserve">Когда финансовые проблемы становятся одной из главных новостных тем, многие из нас начинают переживать из-за денег. 
@@ -1400,7 +1400,7 @@
         <v>image</v>
       </c>
       <c r="M18" t="str">
-        <v>https://sun1-17.userapi.com/s/v1/ig2/yR_irBR1bR_d5JqkW-V1qQ8jdPaHKijjKm9nFS0XUAiFUGkBrUasRm-o2CkPCobMm5rbsMsSIrh9zfj6lSOZTxwW.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
+        <v>https://sun9-37.userapi.com/s/v1/ig2/yR_irBR1bR_d5JqkW-V1qQ8jdPaHKijjKm9nFS0XUAiFUGkBrUasRm-o2CkPCobMm5rbsMsSIrh9zfj6lSOZTxwW.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>102245</v>
+        <v>102258</v>
       </c>
       <c r="G19" t="str">
         <v>0.055</v>
       </c>
       <c r="H19" t="str">
-        <v>293.934</v>
+        <v>293.997</v>
       </c>
       <c r="I19" t="str" xml:space="preserve">
         <v xml:space="preserve">Ваша финансовая безопасность — наш приоритет. 
@@ -1472,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>90660</v>
+        <v>90669</v>
       </c>
       <c r="G20" t="str">
         <v>0.037</v>
       </c>
       <c r="H20" t="str">
-        <v>260.630</v>
+        <v>260.678</v>
       </c>
       <c r="I20" t="str" xml:space="preserve">
         <v xml:space="preserve">С кредитной картой можно получить деньги в любой момент, когда бы они ни понадобились. А если знать, как правильно ими пользоваться, вы будете всегда оставаться в плюсе. 
@@ -1522,13 +1522,13 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>2173</v>
+        <v>2182</v>
       </c>
       <c r="G21" t="str">
         <v>0.135</v>
       </c>
       <c r="H21" t="str">
-        <v>6.247</v>
+        <v>6.273</v>
       </c>
       <c r="I21" t="str" xml:space="preserve">
         <v xml:space="preserve">Сапсаны стали родителями! 
@@ -1568,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="G22" t="str">
         <v>0.049</v>
       </c>
       <c r="H22" t="str">
-        <v>5.732</v>
+        <v>5.756</v>
       </c>
       <c r="I22" t="str" xml:space="preserve">
         <v xml:space="preserve">Цены в магазинах кусаются? 
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>67415</v>
+        <v>67422</v>
       </c>
       <c r="G23" t="str">
         <v>0.066</v>
       </c>
       <c r="H23" t="str">
-        <v>193.805</v>
+        <v>193.842</v>
       </c>
       <c r="I23" t="str" xml:space="preserve">
         <v xml:space="preserve">Банковская ячейка — металлический сейф в банковском хранилище, в котором можно оставить для сохранности деньги, документы и другие ценные вещи. 
@@ -1675,13 +1675,13 @@
         <v>6</v>
       </c>
       <c r="F24">
-        <v>1876</v>
+        <v>1882</v>
       </c>
       <c r="G24" t="str">
         <v>0.055</v>
       </c>
       <c r="H24" t="str">
-        <v>5.393</v>
+        <v>5.411</v>
       </c>
       <c r="I24" t="str" xml:space="preserve">
         <v xml:space="preserve">Правило «50/30/20» — интуитивный способ вести личный или семейный бюджет. 
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="G25" t="str">
         <v>0.046</v>
       </c>
       <c r="H25" t="str">
-        <v>5.727</v>
+        <v>5.742</v>
       </c>
       <c r="I25" t="str" xml:space="preserve">
         <v xml:space="preserve">Что может помешать клиенту воспользоваться вашими услугами? 
@@ -1756,7 +1756,7 @@
         <v>image</v>
       </c>
       <c r="M25" t="str">
-        <v>https://sun1-84.userapi.com/s/v1/ig2/Sz_UAg9X8A2V1I4bQ5nc2FGeurr8I0TinfvqeOT8AIko1nYCd075eskAzUZCHhHOwdwajQX1zhSWzY3t-CfjlCw4.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
+        <v>https://sun9-84.userapi.com/s/v1/ig2/Sz_UAg9X8A2V1I4bQ5nc2FGeurr8I0TinfvqeOT8AIko1nYCd075eskAzUZCHhHOwdwajQX1zhSWzY3t-CfjlCw4.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2135</v>
+        <v>2140</v>
       </c>
       <c r="G26" t="str">
         <v>0.058</v>
       </c>
       <c r="H26" t="str">
-        <v>6.138</v>
+        <v>6.153</v>
       </c>
       <c r="I26" t="str" xml:space="preserve">
         <v xml:space="preserve">Отличить мошенника бывает непросто: они научились звонить с банковских номеров и использовать персональные данные. 
@@ -1833,13 +1833,13 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="G27" t="str">
         <v>0.072</v>
       </c>
       <c r="H27" t="str">
-        <v>5.077</v>
+        <v>5.089</v>
       </c>
       <c r="I27" t="str" xml:space="preserve">
         <v xml:space="preserve">Сегодня День фрилансера. 
@@ -1866,7 +1866,7 @@
         <v>image</v>
       </c>
       <c r="M27" t="str">
-        <v>https://sun1-92.userapi.com/s/v1/ig2/b8JX5Ekf6w3e2Awn2SEaq8IgjomFEtfSpornFKV8vhOzfAIv6y2JXkRSfr_m5k_j4v-YDi0iaM1qHwDm6EnesxPP.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
+        <v>https://sun9-47.userapi.com/s/v1/ig2/b8JX5Ekf6w3e2Awn2SEaq8IgjomFEtfSpornFKV8vhOzfAIv6y2JXkRSfr_m5k_j4v-YDi0iaM1qHwDm6EnesxPP.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
       </c>
     </row>
     <row r="28" xml:space="preserve">
@@ -1886,13 +1886,13 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <v>1891</v>
+        <v>1895</v>
       </c>
       <c r="G28" t="str">
         <v>0.083</v>
       </c>
       <c r="H28" t="str">
-        <v>5.436</v>
+        <v>5.448</v>
       </c>
       <c r="I28" t="str" xml:space="preserve">
         <v xml:space="preserve">Финансовая свобода — это ветер в волосах, чувство стабильности и возможность реализовывать любые свои планы. 
@@ -1924,61 +1924,9 @@
         <v>https://sun9-25.userapi.com/s/v1/ig2/6938fv7io6NqBdwWKg7dlIjTIoSElp4YeF9zbws1YgaC3JYXxULphCa90r0wmVR9VdJo2NZqVSPwbhNcd56SfPy6.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
       </c>
     </row>
-    <row r="29" xml:space="preserve">
-      <c r="A29" t="str">
-        <v>VK</v>
-      </c>
-      <c r="B29" t="str">
-        <v>https://vk.com/wall-35524999_24086</v>
-      </c>
-      <c r="C29">
-        <v>22</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>60220</v>
-      </c>
-      <c r="G29" t="str">
-        <v>0.083</v>
-      </c>
-      <c r="H29" t="str">
-        <v>173.121</v>
-      </c>
-      <c r="I29" t="str" xml:space="preserve">
-        <v xml:space="preserve">Давно мечтаете о собственном жилье? Пора приблизить мечту к реальности — накопить на первоначальный взнос! 
-Предлагаем три способа, которые помогут развить финансовую дисциплину и грамотно откладывать средства: 
-1. Метод кувшинов 
-Весь доход делится на шесть кувшинов: 55 % на питание, коммуналку, проезд, 10 % на досуг — кино, театры, кафе, 10 % на инвестиции, 10 % на образование, курсы и тренинги, 10 % на финансовую подушку безопасности, а 5 % на подарки и благотворительность. 
-2. Еженедельный 
-Каждую неделю откладывайте на 100 ₽ больше, чем на предыдущей. Этот способ поможет накопить за год 137 800 ₽: в первую неделю всего 100 ₽, а в последнюю — 5200 ₽. 
-3. Метод хвостов 
-Удобный способ, для которого понадобится только банковское приложение. Суть проста: в конца дня вы округляете остаток по карте, а разницу переводите на накопительный счёт. 
-Выбирайте наиболее удобный вариант и не забывайте о выгодных предложениях по ипотеке. 
-Узнайте больше об условиях ипотечных программ на сайте — https://vk.cc/cdh29t
-#Уралсиб #банк #ипотека #первоначальныйвзнос 
-ПАО «БАНК УРАЛСИБ». Генеральная лицензия Банка России №30 выдана 10.09.2015 г.</v>
-      </c>
-      <c r="J29" s="1">
-        <v>44693.581875</v>
-      </c>
-      <c r="K29" t="str">
-        <v>public35524999</v>
-      </c>
-      <c r="L29" t="str">
-        <v>image</v>
-      </c>
-      <c r="M29" t="str">
-        <v>https://sun9-56.userapi.com/s/v1/ig2/YdG0D63fj5fLvlR6zCk-gw8LGC-cqt6kv-nSZaTs8M4ZfUx1hy6Dc1xvdpROj7PIn5nMqhbYoood17v2PxIJwh3A.jpg?size=1280x1280&amp;quality=96&amp;type=album</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AG29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AG28"/>
   </ignoredErrors>
 </worksheet>
 </file>